--- a/ModelElements4Tableau.xlsx
+++ b/ModelElements4Tableau.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dianeshomefolder/Documents/git/meteorite-classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED074629-D743-2647-A8B3-B34255FFEB7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550CC692-0572-3D48-B67A-7ECC0B39DA9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15940" xr2:uid="{01E0B062-31D6-4E49-80FD-995F18906E41}"/>
+    <workbookView xWindow="780" yWindow="460" windowWidth="27640" windowHeight="15940" xr2:uid="{01E0B062-31D6-4E49-80FD-995F18906E41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -531,7 +531,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C81159E-86D5-0044-999B-3C515DC5DF66}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -860,7 +862,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B41">
         <v>96.8</v>
@@ -868,18 +870,18 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B42">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B43">
-        <v>96.9</v>
+        <v>97.3</v>
       </c>
     </row>
   </sheetData>
